--- a/Shawno Herbicide Trial.xlsx
+++ b/Shawno Herbicide Trial.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolby Grint\OneDrive\Data and Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolby Grint\OneDrive\Data and Figures\NPM-Herbicide-Efficacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F229B985-6FC1-4107-8C59-9F15EB04E977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70700132-B3D5-4A6C-8CF1-D6AC2404D83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D14C389A-AE06-4055-99AD-1779F815BC36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>AMATU_EFF</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Fierce</t>
   </si>
   <si>
-    <t>Broadax XC</t>
-  </si>
-  <si>
     <t>Authority Assist</t>
   </si>
   <si>
@@ -91,6 +89,18 @@
   </si>
   <si>
     <t>AMATU_Bio</t>
+  </si>
+  <si>
+    <t>Cleaned waterhemp data from plots</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Broadaxe XC</t>
   </si>
 </sst>
 </file>
@@ -457,707 +467,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEC66A3-005B-4174-88A5-925BBA1DB4F7}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
+      <c r="C1" t="s">
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>101</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1">
+        <v>56.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>308</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <v>54.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>412</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>102</v>
+      </c>
+      <c r="E6" s="1">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>209</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>95</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>312</v>
+      </c>
+      <c r="E8" s="1">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>401</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>205</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1">
+        <v>52.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>307</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
         <v>18</v>
       </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="H2">
-        <v>56.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>204</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>308</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>54.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>412</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>102</v>
-      </c>
-      <c r="D6" s="1">
-        <v>85</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>209</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="H12" s="1">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>405</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>48.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>104</v>
+      </c>
+      <c r="E14" s="1">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>206</v>
+      </c>
+      <c r="E15" s="1">
+        <v>95</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>311</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>407</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1">
         <v>80</v>
       </c>
-      <c r="E7" s="1">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>312</v>
-      </c>
-      <c r="D8" s="1">
-        <v>86</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>401</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>80</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>103</v>
-      </c>
-      <c r="D10" s="2">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>205</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>307</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>405</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1">
-        <v>58.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>104</v>
-      </c>
-      <c r="D14" s="1">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>206</v>
-      </c>
-      <c r="D15" s="1">
-        <v>95</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <v>311</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>407</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>105</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>89</v>
       </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
         <v>4.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <v>210</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>89</v>
       </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
         <v>306</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>84</v>
       </c>
-      <c r="E20" s="1">
-        <v>100</v>
-      </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
         <v>0.68</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
         <v>410</v>
       </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
       <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
         <v>85</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>106</v>
       </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="2">
         <v>89</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
       <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>207</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
-        <v>207</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
         <v>302</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>85</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
+      <c r="F24" s="2">
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
         <v>404</v>
       </c>
-      <c r="D25" s="1">
-        <v>100</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2">
         <v>25</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
       <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <v>107</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>86</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>25</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>4.76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <v>201</v>
       </c>
-      <c r="D27" s="2">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>7</v>
-      </c>
-      <c r="G27" s="1">
-        <v>3</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
         <v>310</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>98</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
@@ -1165,534 +1261,655 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
         <v>409</v>
       </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
       <c r="E29" s="1">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
         <v>35</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
       <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>108</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>90</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>25</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
         <v>202</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>85</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>3</v>
+      <c r="F31" s="2">
+        <v>0</v>
       </c>
       <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
         <v>10</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I31" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
         <v>304</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>75</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>80</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
         <v>0.19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
         <v>408</v>
       </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2">
         <v>75</v>
       </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
       <c r="G33" s="1">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
         <v>109</v>
       </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
       <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1">
         <v>85</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
         <v>203</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>85</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>88</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
       <c r="G35" s="1">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
         <v>301</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>91</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>75</v>
       </c>
-      <c r="F36" s="1">
-        <v>4</v>
-      </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
         <v>0.18</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
         <v>403</v>
       </c>
-      <c r="D37" s="1">
-        <v>100</v>
-      </c>
       <c r="E37" s="1">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1">
         <v>85</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
       <c r="G37" s="1">
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>48.24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
         <v>110</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>85</v>
       </c>
-      <c r="E38" s="1">
-        <v>100</v>
-      </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
         <v>0.19</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
         <v>208</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>87</v>
       </c>
-      <c r="E39" s="1">
-        <v>100</v>
-      </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
         <v>309</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>86</v>
       </c>
-      <c r="E40" s="1">
-        <v>100</v>
-      </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1">
         <v>406</v>
       </c>
-      <c r="D41" s="1">
-        <v>100</v>
-      </c>
       <c r="E41" s="1">
         <v>100</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
         <v>111</v>
       </c>
-      <c r="D42" s="1">
-        <v>100</v>
-      </c>
       <c r="E42" s="1">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1">
         <v>88</v>
       </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
         <v>1.46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
         <v>212</v>
       </c>
-      <c r="D43" s="1">
-        <v>100</v>
-      </c>
       <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
         <v>95</v>
       </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
         <v>303</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>89</v>
       </c>
-      <c r="E44" s="1">
-        <v>100</v>
-      </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
         <v>402</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>87</v>
       </c>
-      <c r="E45" s="1">
-        <v>100</v>
-      </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>112</v>
       </c>
-      <c r="D46" s="1">
-        <v>100</v>
-      </c>
       <c r="E46" s="1">
         <v>100</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
       <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
         <v>21.14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
         <v>211</v>
       </c>
-      <c r="D47" s="1">
-        <v>100</v>
-      </c>
       <c r="E47" s="1">
         <v>100</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
         <v>305</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>89</v>
       </c>
-      <c r="E48" s="1">
-        <v>100</v>
-      </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1">
         <v>411</v>
       </c>
-      <c r="D49" s="1">
-        <v>100</v>
-      </c>
       <c r="E49" s="1">
         <v>100</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5116E678-FE64-4CD1-8E22-22429791B2C7}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>407</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
